--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\GitHub\Conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Presente" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Pasado experimentado" sheetId="4" r:id="rId4"/>
     <sheet name="Pasado experimentado progresivo" sheetId="5" r:id="rId5"/>
     <sheet name="Pasado experimentado habitual" sheetId="6" r:id="rId6"/>
-    <sheet name="Pasado no experimentado simpleP" sheetId="7" r:id="rId7"/>
+    <sheet name="Pasado no experimentado simple" sheetId="7" r:id="rId7"/>
     <sheet name="Pasado no experimentado progres" sheetId="8" r:id="rId8"/>
     <sheet name="Pasado no experimentado habitua" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Presente" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t xml:space="preserve">singular </t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>q ka-sqa-(n)ku</t>
-  </si>
-  <si>
-    <t>trrcera</t>
   </si>
   <si>
     <t>sqa-(n)k</t>
@@ -844,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -903,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,13 +938,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Presente" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t xml:space="preserve">singular </t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>q-mi</t>
-  </si>
-  <si>
-    <t>futuro</t>
   </si>
   <si>
     <t>primero</t>
@@ -727,7 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -736,29 +735,29 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -804,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -815,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -826,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -863,10 +862,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -874,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -885,10 +884,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +918,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -941,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +978,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -990,10 +989,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1001,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1036,13 +1035,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1050,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1061,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Presente" sheetId="1" r:id="rId1"/>
@@ -118,12 +118,6 @@
     <t>rqa-nkichik</t>
   </si>
   <si>
-    <t>-rqa-(n)</t>
-  </si>
-  <si>
-    <t>rqa-(n)ku</t>
-  </si>
-  <si>
     <t>chka-rqa-ni</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>sqa-(n)k</t>
+  </si>
+  <si>
+    <t>rqa-ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rqa-ni </t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -814,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +862,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -873,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -884,10 +884,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +918,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -929,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -940,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +978,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -989,10 +989,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1000,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1038,10 +1038,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1049,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1060,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Presente" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,7 +740,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t xml:space="preserve">singular </t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">rqa-ni </t>
+  </si>
+  <si>
+    <t>Persona</t>
   </si>
 </sst>
 </file>
@@ -570,6 +573,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Presente" sheetId="1" r:id="rId1"/>
+    <sheet name="Presente simple" sheetId="1" r:id="rId1"/>
     <sheet name="Presente progresivo" sheetId="2" r:id="rId2"/>
     <sheet name="Presente habitual" sheetId="3" r:id="rId3"/>
     <sheet name="Pasado experimentado" sheetId="4" r:id="rId4"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t xml:space="preserve">singular </t>
   </si>
@@ -112,9 +112,6 @@
     <t>rqa-nchik</t>
   </si>
   <si>
-    <t>-rqa-nki</t>
-  </si>
-  <si>
     <t>rqa-nkichik</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>chka-rqa-nkichik</t>
   </si>
   <si>
-    <t>chka-rqa-(n)</t>
-  </si>
-  <si>
     <t>chka-rqa-nku</t>
   </si>
   <si>
@@ -148,12 +142,6 @@
     <t>q ka-rqa-nkichik</t>
   </si>
   <si>
-    <t>q ka-rqa-(n)</t>
-  </si>
-  <si>
-    <t>q ka-rqa-(n)ku</t>
-  </si>
-  <si>
     <t>sqa-ni</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>sqa-nkichik</t>
   </si>
   <si>
-    <t>sqa-(n)</t>
-  </si>
-  <si>
     <t>chka-sqa-ni</t>
   </si>
   <si>
@@ -181,12 +166,6 @@
     <t>chka-sqa-nkichik</t>
   </si>
   <si>
-    <t>chka-sqa-(n)</t>
-  </si>
-  <si>
-    <t>chka-sqa-(n)ku</t>
-  </si>
-  <si>
     <t>q ka-sqa-ni</t>
   </si>
   <si>
@@ -199,22 +178,40 @@
     <t>q ka-sqa-nkichik</t>
   </si>
   <si>
-    <t>q ka-sqa-(n)</t>
-  </si>
-  <si>
-    <t>q ka-sqa-(n)ku</t>
-  </si>
-  <si>
-    <t>sqa-(n)k</t>
-  </si>
-  <si>
     <t>rqa-ku</t>
   </si>
   <si>
     <t xml:space="preserve">rqa-ni </t>
   </si>
   <si>
-    <t>Persona</t>
+    <t>rqa-nki</t>
+  </si>
+  <si>
+    <t>chka-rqa-n</t>
+  </si>
+  <si>
+    <t>q ka-rqa-n</t>
+  </si>
+  <si>
+    <t>q ka-rqa-nku</t>
+  </si>
+  <si>
+    <t>sqa-n</t>
+  </si>
+  <si>
+    <t>sqa-nk</t>
+  </si>
+  <si>
+    <t>chka-sqa-n</t>
+  </si>
+  <si>
+    <t>chka-sqa-nku</t>
+  </si>
+  <si>
+    <t>q ka-sqa-n</t>
+  </si>
+  <si>
+    <t>q ka-sqa-nku</t>
   </si>
 </sst>
 </file>
@@ -568,14 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +727,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,10 +756,10 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,10 +767,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +783,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -820,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -831,10 +827,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +843,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,10 +886,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +902,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,10 +920,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -935,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -946,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +958,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -995,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1006,10 +1002,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1018,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,10 +1040,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1055,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1066,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">singular </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>plural</t>
   </si>
@@ -566,50 +563,47 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -627,40 +621,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -681,40 +675,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -734,43 +728,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -794,43 +788,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -853,43 +847,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -909,43 +903,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -969,43 +963,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1029,43 +1023,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>plural</t>
   </si>
@@ -563,12 +563,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,18 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Presente simple" sheetId="1" r:id="rId1"/>
-    <sheet name="Presente progresivo" sheetId="2" r:id="rId2"/>
-    <sheet name="Presente habitual" sheetId="3" r:id="rId3"/>
-    <sheet name="Pasado experimentado" sheetId="4" r:id="rId4"/>
-    <sheet name="Pasado experimentado progresivo" sheetId="5" r:id="rId5"/>
-    <sheet name="Pasado experimentado habitual" sheetId="6" r:id="rId6"/>
-    <sheet name="Pasado no experimentado simple" sheetId="7" r:id="rId7"/>
-    <sheet name="Pasado no experimentado progres" sheetId="8" r:id="rId8"/>
-    <sheet name="Pasado no experimentado habitua" sheetId="9" r:id="rId9"/>
+    <sheet name="presente simple" sheetId="1" r:id="rId1"/>
+    <sheet name="pasado experimental" sheetId="2" r:id="rId2"/>
+    <sheet name="pasado no experimentado" sheetId="10" r:id="rId3"/>
+    <sheet name="futuro" sheetId="11" r:id="rId4"/>
+    <sheet name="futuro lejano" sheetId="12" r:id="rId5"/>
+    <sheet name="pasado habitual" sheetId="13" r:id="rId6"/>
+    <sheet name="presente habitual" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,20 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>plural</t>
   </si>
   <si>
-    <t>primera</t>
-  </si>
-  <si>
     <t>ni</t>
   </si>
   <si>
-    <t>niku</t>
-  </si>
-  <si>
     <t>segunda</t>
   </si>
   <si>
@@ -55,9 +47,6 @@
     <t>nki</t>
   </si>
   <si>
-    <t>nkichik</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -67,66 +56,18 @@
     <t>singular</t>
   </si>
   <si>
-    <t>chka-ni</t>
-  </si>
-  <si>
-    <t>chka-nchik</t>
-  </si>
-  <si>
-    <t>chka-nk</t>
-  </si>
-  <si>
-    <t>chka-nkichik</t>
-  </si>
-  <si>
-    <t>chka-n</t>
-  </si>
-  <si>
     <t>q ka-ni</t>
   </si>
   <si>
     <t>q ka-nki</t>
   </si>
   <si>
-    <t>q ka-nkichik</t>
-  </si>
-  <si>
-    <t>q ka-niku</t>
-  </si>
-  <si>
-    <t>q-mi</t>
-  </si>
-  <si>
-    <t>primero</t>
-  </si>
-  <si>
-    <t>segundo</t>
-  </si>
-  <si>
     <t>rqa-ni</t>
   </si>
   <si>
     <t>rqa-nchik</t>
   </si>
   <si>
-    <t>rqa-nkichik</t>
-  </si>
-  <si>
-    <t>chka-rqa-ni</t>
-  </si>
-  <si>
-    <t>chka-rqa-niku</t>
-  </si>
-  <si>
-    <t>chka-rqa-nki</t>
-  </si>
-  <si>
-    <t>chka-rqa-nkichik</t>
-  </si>
-  <si>
-    <t>chka-rqa-nku</t>
-  </si>
-  <si>
     <t>q ka-rqa-ni</t>
   </si>
   <si>
@@ -136,9 +77,6 @@
     <t>q ka-rqa-nki</t>
   </si>
   <si>
-    <t>q ka-rqa-nkichik</t>
-  </si>
-  <si>
     <t>sqa-ni</t>
   </si>
   <si>
@@ -148,67 +86,118 @@
     <t>sqa-nki</t>
   </si>
   <si>
-    <t>sqa-nkichik</t>
-  </si>
-  <si>
-    <t>chka-sqa-ni</t>
-  </si>
-  <si>
-    <t>chka-sqa-nchik</t>
-  </si>
-  <si>
-    <t>chka-sqa-nki</t>
-  </si>
-  <si>
-    <t>chka-sqa-nkichik</t>
-  </si>
-  <si>
-    <t>q ka-sqa-ni</t>
-  </si>
-  <si>
-    <t>q ka-sqa-nchik</t>
-  </si>
-  <si>
-    <t>q ka-sqa-nki</t>
-  </si>
-  <si>
-    <t>q ka-sqa-nkichik</t>
-  </si>
-  <si>
-    <t>rqa-ku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rqa-ni </t>
-  </si>
-  <si>
     <t>rqa-nki</t>
   </si>
   <si>
-    <t>chka-rqa-n</t>
-  </si>
-  <si>
     <t>q ka-rqa-n</t>
   </si>
   <si>
-    <t>q ka-rqa-nku</t>
-  </si>
-  <si>
-    <t>sqa-n</t>
-  </si>
-  <si>
-    <t>sqa-nk</t>
-  </si>
-  <si>
-    <t>chka-sqa-n</t>
-  </si>
-  <si>
-    <t>chka-sqa-nku</t>
-  </si>
-  <si>
-    <t>q ka-sqa-n</t>
-  </si>
-  <si>
-    <t>q ka-sqa-nku</t>
+    <t xml:space="preserve">primera inclusiva </t>
+  </si>
+  <si>
+    <t>primera exclusiva</t>
+  </si>
+  <si>
+    <t>yku</t>
+  </si>
+  <si>
+    <t>nchik</t>
+  </si>
+  <si>
+    <t>nki-chik</t>
+  </si>
+  <si>
+    <t>primera inclusiva</t>
+  </si>
+  <si>
+    <t>rqa-n</t>
+  </si>
+  <si>
+    <t>rqa-yku</t>
+  </si>
+  <si>
+    <t>rqa-nki-chik</t>
+  </si>
+  <si>
+    <t>rqa-n-ku</t>
+  </si>
+  <si>
+    <t>presente inclusivo</t>
+  </si>
+  <si>
+    <t>presente exclusivo</t>
+  </si>
+  <si>
+    <t>sqa</t>
+  </si>
+  <si>
+    <t>sqa-yku</t>
+  </si>
+  <si>
+    <t>sqan-ki-chik</t>
+  </si>
+  <si>
+    <t>sqa-n-ku</t>
+  </si>
+  <si>
+    <t>saq</t>
+  </si>
+  <si>
+    <t>nqa</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>saq-ku</t>
+  </si>
+  <si>
+    <t>nqa-ku</t>
+  </si>
+  <si>
+    <t>q-ka-saq</t>
+  </si>
+  <si>
+    <t>q-ka-nqa</t>
+  </si>
+  <si>
+    <t>q-ka-nki</t>
+  </si>
+  <si>
+    <t>q-ka-sun</t>
+  </si>
+  <si>
+    <t>q-saq-ka-ku</t>
+  </si>
+  <si>
+    <t>q-ka-nki-chik</t>
+  </si>
+  <si>
+    <t>q-ka-nqa-ku</t>
+  </si>
+  <si>
+    <t>q ka-rqa-yku</t>
+  </si>
+  <si>
+    <t>q ka-rqa-nki-chik</t>
+  </si>
+  <si>
+    <t>q ka-rqa-n-ku</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>q kanchik</t>
+  </si>
+  <si>
+    <t>q ka-yku</t>
+  </si>
+  <si>
+    <t>q ka-nki-chik</t>
+  </si>
+  <si>
+    <t>q ka-n-ku</t>
   </si>
 </sst>
 </file>
@@ -560,17 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -578,35 +570,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -616,15 +616,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -632,32 +637,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +683,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -686,32 +704,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -721,17 +750,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -739,35 +771,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -777,21 +817,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -799,35 +839,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -837,20 +885,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -858,35 +907,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -896,77 +953,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -974,95 +975,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="presente simple" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>plural</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>q ka-n-ku</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -551,13 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -582,6 +591,9 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -619,7 +631,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,6 +662,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
@@ -686,7 +701,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,6 +732,9 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -753,7 +771,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,6 +802,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
@@ -820,7 +841,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,6 +873,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
@@ -888,7 +912,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,6 +944,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
@@ -955,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,6 +1015,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>

--- a/tarea4.xlsx
+++ b/tarea4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>plural</t>
   </si>
@@ -92,18 +92,12 @@
     <t>q ka-rqa-n</t>
   </si>
   <si>
-    <t xml:space="preserve">primera inclusiva </t>
-  </si>
-  <si>
     <t>primera exclusiva</t>
   </si>
   <si>
     <t>yku</t>
   </si>
   <si>
-    <t>nchik</t>
-  </si>
-  <si>
     <t>nki-chik</t>
   </si>
   <si>
@@ -207,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>n-chik</t>
   </si>
 </sst>
 </file>
@@ -561,7 +558,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,24 +576,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -607,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -649,7 +646,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -660,13 +657,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -677,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -685,10 +682,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +716,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -730,13 +727,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -747,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -789,24 +786,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -817,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -825,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -860,24 +857,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -885,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -896,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +928,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -942,13 +939,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -959,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -970,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1002,24 +999,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1030,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1038,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
